--- a/data/GRNmap_input_workbooks/17-genes_32-edges_NW-dCIN5-fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/17-genes_32-edges_NW-dCIN5-fam_Sigmoid_estimation.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Documents\GRNmap\dCIN5_GRNmap\dCIN5_17-gene_32-edges\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" tabRatio="868" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="46">
   <si>
     <t>cols regulators/rows targets</t>
   </si>
@@ -149,153 +144,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>-0.2792</t>
-  </si>
-  <si>
-    <t>-0.2436</t>
-  </si>
-  <si>
-    <t>0.1581</t>
-  </si>
-  <si>
-    <t>-0.383</t>
-  </si>
-  <si>
-    <t>0.2693</t>
-  </si>
-  <si>
-    <t>1.4649</t>
-  </si>
-  <si>
-    <t>-0.7654</t>
-  </si>
-  <si>
-    <t>-1.1456</t>
-  </si>
-  <si>
-    <t>-0.3518</t>
-  </si>
-  <si>
-    <t>0.5869</t>
-  </si>
-  <si>
-    <t>0.0341</t>
-  </si>
-  <si>
-    <t>0.1712</t>
-  </si>
-  <si>
-    <t>-1.463</t>
-  </si>
-  <si>
-    <t>0.3025</t>
-  </si>
-  <si>
-    <t>1.2958</t>
-  </si>
-  <si>
-    <t>1.5911</t>
-  </si>
-  <si>
-    <t>1.2566</t>
-  </si>
-  <si>
-    <t>0.4422</t>
-  </si>
-  <si>
-    <t>1.8072</t>
-  </si>
-  <si>
-    <t>-0.8927</t>
-  </si>
-  <si>
-    <t>0.3325</t>
-  </si>
-  <si>
-    <t>0.6703</t>
-  </si>
-  <si>
-    <t>0.7164</t>
-  </si>
-  <si>
-    <t>-0.5489</t>
-  </si>
-  <si>
-    <t>-0.5302</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>1.5125</t>
-  </si>
-  <si>
-    <t>-0.0775</t>
-  </si>
-  <si>
-    <t>-0.522</t>
-  </si>
-  <si>
-    <t>0.4726</t>
-  </si>
-  <si>
-    <t>0.5256</t>
-  </si>
-  <si>
-    <t>-0.3325</t>
-  </si>
-  <si>
-    <t>1.0717</t>
-  </si>
-  <si>
-    <t>-1.9025</t>
-  </si>
-  <si>
-    <t>-0.4406</t>
-  </si>
-  <si>
-    <t>2.5266</t>
-  </si>
-  <si>
-    <t>0.4041</t>
-  </si>
-  <si>
-    <t>0.1802</t>
-  </si>
-  <si>
-    <t>0.8526</t>
-  </si>
-  <si>
-    <t>-0.4332</t>
-  </si>
-  <si>
-    <t>0.3344</t>
-  </si>
-  <si>
-    <t>-1.2684</t>
-  </si>
-  <si>
-    <t>-0.8782</t>
-  </si>
-  <si>
-    <t>-0.9354</t>
-  </si>
-  <si>
-    <t>-0.0589</t>
-  </si>
-  <si>
-    <t>-0.7158</t>
-  </si>
-  <si>
-    <t>0.8398</t>
-  </si>
-  <si>
-    <t>2.3845</t>
-  </si>
-  <si>
-    <t>0.1525</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -324,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,12 +190,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -394,22 +236,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,157 +560,163 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.19259999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>0.17119999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.4078</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.72960000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>0.1042</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -877,13 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -995,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1723,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1900,194 +1748,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>30</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>30</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>35</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>40</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>45</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>50</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>55</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>60</v>
       </c>
     </row>
@@ -2100,153 +1954,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2257,173 +2116,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.1118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.10050000000000001</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.13589999999999999</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.2039</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.34660000000000002</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.14149999999999999</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.16120000000000001</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0.36480000000000001</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>5.21E-2</v>
       </c>
-      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,800 +2281,803 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>30</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.6139</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>-1.0689</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>0.19059999999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-0.39800000000000002</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0.5827</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>-2.52E-2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-0.3947</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>-0.62639999999999996</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>0.3377</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>0.81699999999999995</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>0.55659999999999998</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>-0.43569999999999998</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>-1.2497</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>-0.13730000000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1.2385999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1.3909</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>-0.4224</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>0.54610000000000003</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>1.0285</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1.2338</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>2.2159</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>2.1796000000000002</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>0.84470000000000001</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>2.4687000000000001</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>1.4784999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.50639999999999996</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.89049999999999996</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>-0.1242</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>-1.1405000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.38369999999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.85250000000000004</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>-0.32729999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>-0.29820000000000002</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>-0.315</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>-0.59989999999999999</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>-0.94469999999999998</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>-0.35849999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>-1.3141</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.39389999999999997</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0.1439</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>-0.51329999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>-0.70040000000000002</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>-0.2467</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>1.4085000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.97330000000000005</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.65039999999999998</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>0.20250000000000001</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>0.89239999999999997</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>0.90069999999999995</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>0.1953</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.51380000000000003</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1.9214</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>-0.88590000000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-2.6541999999999999</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>1.5184</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>-2.5135000000000001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>-1.1181000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>0.2225</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>-1.0353000000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>-0.2074</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
         <v>-1.8463000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.30580000000000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>0.2392</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1.8398000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1.2493000000000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>-0.95250000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>1.405</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1.3109</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>1.2568999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>1.9007000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>1.4816</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1.8391</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>2.2172000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>-2.0680000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1.2534000000000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>-0.3891</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>-0.90749999999999997</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>0.97270000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>0.68689999999999996</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1.3149999999999999</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>-0.1774</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>-0.87329999999999997</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>1.2347999999999999</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>0.23330000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>-0.36580000000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.37209999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>-0.58630000000000004</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.9587</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>1.2197</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.89229999999999998</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>1.2168000000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>0.99239999999999995</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>2.0937999999999999</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.36459999999999998</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.54920000000000002</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>-1.0625</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.92459999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.1666</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>-0.26960000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>0.95140000000000002</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0.12330000000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>1.2802</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>-0.68079999999999996</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>0.76339999999999997</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>1.3451</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>0.83550000000000002</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>-0.12709999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>-0.26690000000000003</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.37019999999999997</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>-0.61339999999999995</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1.004</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>-0.14119999999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>-0.37090000000000001</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.47349999999999998</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>0.61880000000000002</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>-0.2072</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>0.55589999999999995</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>0.58950000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>2.1524999999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>-0.4526</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>0.69169999999999998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>0.53420000000000001</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>2.2597999999999998</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>-0.92320000000000002</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1.3828</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0.90039999999999998</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>0.88880000000000003</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
         <v>-1.0367</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>-1.6758</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>-0.49859999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.38</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>-0.12740000000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>-2.5268999999999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>-1.9189000000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0.54430000000000001</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>8.4500000000000006E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>4.07E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>-1.3691</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>-2.6627000000000001</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>0.20280000000000001</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>-0.27479999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>-0.92859999999999998</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>-2.3E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>-0.32779999999999998</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>-0.4798</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>0.20469999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>0.32219999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>-0.23769999999999999</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>-0.63690000000000002</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>-1.4226000000000001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>-0.52939999999999998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.29959999999999998</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>-0.76749999999999996</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>-0.20330000000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>-0.91059999999999997</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>-0.72340000000000004</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>-1.9049</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>0.78539999999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>-0.25700000000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.16869999999999999</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>-1.0667</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>0.1028</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>-2.86E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>0.4798</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>-1.1269</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>-0.21</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>-0.66759999999999997</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>-1.6963999999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>-0.34960000000000002</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>1.2371000000000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>0.94320000000000004</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>-0.36209999999999998</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>-1.8086</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>0.66169999999999995</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>0.61919999999999997</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>-0.20250000000000001</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>-1.0587</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>-0.64019999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>-2.2532000000000001</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>-1.6116999999999999</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>-0.104</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>-0.1487</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>-0.93940000000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>-0.59009999999999996</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>0.13289999999999999</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>-0.72219999999999995</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="6">
         <v>-0.51170000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>0.65939999999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>0.61350000000000005</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>0.32379999999999998</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>-0.37119999999999997</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>1.4712000000000001</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>1.9049</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>-0.2354</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>-0.39400000000000002</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>2.9605999999999999</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>3.5569000000000002</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>1.3863000000000001</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>1.976</v>
       </c>
     </row>
@@ -3243,746 +3092,749 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>-0.17180000000000001</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="11">
+        <v>-0.2792</v>
+      </c>
+      <c r="D2" s="6">
         <v>-0.17519999999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-0.68840000000000001</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="11">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="H2" s="6">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>-0.42530000000000001</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>0.56820000000000004</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>0.1646</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>-0.32019999999999998</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>-0.38879999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>-0.66849999999999998</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>-0.30499999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>-0.43219999999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>-0.1191</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F3" s="11">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.26929999999999998</v>
+      </c>
+      <c r="H3" s="6">
         <v>-7.5700000000000003E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>0.59750000000000003</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>-0.3216</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>0.4778</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>-0.3155</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="11">
+        <v>1.4649000000000001</v>
+      </c>
+      <c r="D4" s="6">
         <v>-0.80289999999999995</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.5141</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" s="11">
+        <v>-0.76539999999999997</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-1.1456</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.50960000000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>-0.22570000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>-0.94040000000000001</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>-1.3326</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="11">
+        <v>-0.3518</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.31009999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="11">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.43419999999999997</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>1.0717000000000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>1.1548</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>0.54459999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="11">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="D6" s="6">
         <v>-1.9531000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="11">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="H6" s="6">
         <v>-2.2646000000000002</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>1.4417</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>-1.2318</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>-0.14030000000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>-1.9814000000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>-1.2117</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>-0.91690000000000005</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="11">
+        <v>1.2958000000000001</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="11">
+        <v>1.5911</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.2565999999999999</v>
+      </c>
+      <c r="H7" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>-0.31259999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>1.5823</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>2.7766999999999999</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0.9466</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1.4664999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>0.48080000000000001</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="11">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="D8" s="6">
         <v>1.4923999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>2.4096000000000002</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="11">
+        <v>1.8071999999999999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>-0.89270000000000005</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.75890000000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>-9.98E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>0.46789999999999998</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>1.1344000000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>1.3233999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="11">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.29420000000000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="11">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.33739999999999998</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.35539999999999999</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>1.2329000000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.2175</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>-0.2056</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>0.57640000000000002</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="11">
+        <v>-0.54890000000000005</v>
+      </c>
+      <c r="D10" s="6">
         <v>0.24909999999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="11">
+        <v>-0.5302</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H10" s="6">
         <v>-9.9699999999999997E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>1.0787</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>-0.1371</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>0.40110000000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>0.58789999999999998</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="11">
+        <v>1.5125</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.36570000000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>0.68759999999999999</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" s="11">
+        <v>-7.7499999999999999E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.30730000000000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>-0.36349999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>-0.12959999999999999</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>1.7000999999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>0.14030000000000001</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="11">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="D12" s="6">
         <v>1.1254999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" s="11">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-0.33250000000000002</v>
+      </c>
+      <c r="H12" s="6">
         <v>1.6525000000000001</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>-0.1135</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>0.61</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>0.67210000000000003</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0.95820000000000005</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>0.31269999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="11">
+        <v>1.0717000000000001</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="F13" s="11">
+        <v>-1.9025000000000001</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-0.44059999999999999</v>
+      </c>
+      <c r="H13" s="6">
         <v>0.56589999999999996</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>1.258</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>0.49270000000000003</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>0.29249999999999998</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>1.6588000000000001</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>1.1318999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>-0.4763</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>-0.3397</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>-0.33360000000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="F14" s="11">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="H14" s="6">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>-0.2142</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>-0.31009999999999999</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.23119999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>-0.1331</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="11">
+        <v>0.1802</v>
+      </c>
+      <c r="D15" s="6">
         <v>-0.32140000000000002</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="F15" s="11">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-0.43319999999999997</v>
+      </c>
+      <c r="H15" s="6">
         <v>0.22489999999999999</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.70350000000000001</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>-0.44190000000000002</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>0.92220000000000002</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>-1.2421</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="11">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="D16" s="6">
         <v>-0.73499999999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" s="11">
+        <v>-1.2684</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-0.87819999999999998</v>
+      </c>
+      <c r="H16" s="6">
         <v>1.0021</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>-0.76680000000000004</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>0.97960000000000003</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>-5.28E-2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>-0.86929999999999996</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.55789999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="11">
+        <v>-0.93540000000000001</v>
+      </c>
+      <c r="D17" s="6">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="F17" s="11">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-0.71579999999999999</v>
+      </c>
+      <c r="H17" s="6">
         <v>-0.11550000000000001</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>-2.4802</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>0.66569999999999996</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>0.53159999999999996</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>-1.3987000000000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>0.83440000000000003</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="11">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.91839999999999999</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" s="11">
+        <v>2.3845000000000001</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.1525</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.65110000000000001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>-0.82630000000000003</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>0.31130000000000002</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>-9.06E-2</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>0.96989999999999998</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>-4.41E-2</v>
       </c>
     </row>
@@ -3996,754 +3848,756 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="3">
         <v>60</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>-0.8095</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>-0.62429999999999997</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>-1.1295999999999999</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>-1.1113</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>-1.4079999999999999</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>2.6021000000000001</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-0.40789999999999998</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>1.2345999999999999</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>1.1846000000000001</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>-5.8799999999999998E-2</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>0.44040000000000001</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>-0.1933</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>1.452</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.36680000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1.0023</v>
       </c>
       <c r="F3" s="9">
         <v>1.6619999999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>2.9944999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>1.3996</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1.9426000000000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>0.29120000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>0.62819999999999998</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>3.2391000000000001</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>2.5788000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>-0.51839999999999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>1.3267</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1.0101</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>-6.1600000000000002E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.36909999999999998</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>-0.19980000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>1.1081000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>0.19889999999999999</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>1.6447000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>-1.6053999999999999</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.70450000000000002</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0.76729999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.59570000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.85489999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>-0.67589999999999995</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.63429999999999997</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>-8.6099999999999996E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>-1.0684</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0.30230000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.41770000000000002</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.1085</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>0.80179999999999996</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>-0.161</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>3.3136000000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1.8683000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.90639999999999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.2848</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>1.2425999999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>1.4451000000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>0.91479999999999995</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>-1.32E-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>1.2979000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>0.10589999999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>-0.29759999999999998</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>0.22559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.97719999999999996</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1.4618</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>-0.71560000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.78990000000000005</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>1.5734999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>1.1125</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1.1015999999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0.51459999999999995</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>1.3432999999999999</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>1.5648</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1.7134</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>2.5908000000000002</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>6.0278999999999998</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>-0.84640000000000004</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>2.5908000000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.94030000000000002</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>-0.26119999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1.6552</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>2.3471000000000002</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>0.46329999999999999</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <v>0.46329999999999999</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>-1.4205000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.54879999999999995</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.81589999999999996</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>-6.88E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.32479999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.32790000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>1.2747999999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.54049999999999998</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.36120000000000002</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>0.48139999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>-8.1100000000000005E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.31580000000000003</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.80289999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>1.0774999999999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>-1.2575000000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.96560000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.16689999999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0.93940000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0.58140000000000003</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>2.5089000000000001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>0.85389999999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>1.4608000000000001</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>0.77939999999999998</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>1.8202</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.32590000000000002</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>-2.2749999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>0.2167</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>0.64400000000000002</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.54649999999999999</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>-8.7300000000000003E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>0.53939999999999999</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>1.6167</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>2.0903</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>0.98519999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>-0.41570000000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>1.2987</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1.3915999999999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>1.0549999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>-0.64339999999999997</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>2.4701</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>2.3169</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>1.2747999999999999</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1.2483</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0.23849999999999999</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1.2221</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>0.8397</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>0.85729999999999995</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.22919999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>0.6421</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>1.1875</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>0.21609999999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>0.96419999999999995</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>0.7419</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>0.10879999999999999</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>0.65849999999999997</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>0.2671</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>0.1741</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>-0.5323</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>-1.2532000000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>-8.0500000000000002E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>-0.3044</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>0.44</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>-1.0186999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>-0.56210000000000004</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>-0.88380000000000003</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>0.9617</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>-0.89629999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>-0.27239999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>-0.52149999999999996</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>-1.3444</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>0.48070000000000002</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>-0.29949999999999999</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>-0.40570000000000001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.4289</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <v>-0.1026</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>-0.99909999999999999</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>0.47510000000000002</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>0.2162</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>-0.70220000000000005</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>0.54079999999999995</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>-4.4299999999999999E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>0.54059999999999997</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>0.81179999999999997</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>0.91839999999999999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>2.4355000000000002</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>1.1496</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>1.0065999999999999</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>-0.29620000000000002</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>0.35639999999999999</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>1.0390999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>0.45540000000000003</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>0.56440000000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>-1.9400000000000001E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>0.82110000000000005</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>1.1649</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>0.37130000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>0.6099</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>0.92059999999999997</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>0.9647</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>0.49099999999999999</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>0.92530000000000001</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>1.2979000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>-1.2206999999999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>-0.22620000000000001</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>-0.3473</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>-0.59819999999999995</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>1.7576000000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>0.84640000000000004</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>1.3798999999999999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>-1.6435999999999999</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>-0.5111</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>-1.0851999999999999</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>-1.08</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="8"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4755,749 +4609,749 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>0.56740000000000002</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>-0.313</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>-8.8599999999999998E-2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.56740000000000002</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>-0.4768</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-0.59799999999999998</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>-0.1176</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>-0.27829999999999999</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>-0.60829999999999995</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>-0.6331</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>0.19850000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>0.53659999999999997</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>3.0979999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>-0.78180000000000005</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.53659999999999997</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1.0477000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>1.9388000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>1.9984999999999999</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>1.948</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>2.8677999999999999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>3.26</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>2.2513000000000001</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>1.9187000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1.2909999999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.40570000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>0.59989999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1.5787</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>-0.50419999999999998</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>1.659</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>1.728</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.4889</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>-0.29909999999999998</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.98629999999999995</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>0.71489999999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.6492</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>-0.12590000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.71489999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>0.29320000000000002</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>-0.3901</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.2321</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.92379999999999995</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>0.31740000000000002</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>-2.52E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>1.0246</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>-0.81689999999999996</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>-0.92030000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.37859999999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>-0.81689999999999996</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>-1.4461999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>-0.30249999999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>-0.37269999999999998</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>-0.2195</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>0.26190000000000002</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>-0.52849999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>-1.8079000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1.0226999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>-1.8079000000000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>2.6496</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>1.8896999999999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1.3274999999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>-2.4363000000000001</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>1.3018000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>-0.26040000000000002</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>2.3205</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>-0.2676</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1.6165</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.51170000000000004</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1.9197</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1.6165</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>1.2182999999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>1.5653999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>2.7326000000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>-0.9587</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1.4449000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>1.3041</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>2.1783000000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>0.86419999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>-0.49149999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>0.75170000000000003</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.12920000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.51680000000000004</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.4098</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.48970000000000002</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>0.37419999999999998</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>-0.43280000000000002</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.47270000000000001</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>1.0011000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>0.5827</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.54579999999999995</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>-0.40350000000000003</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.5827</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>1.0075000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>0.80379999999999996</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>1.1451</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>0.6532</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>1.4213</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>0.75490000000000002</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>0.33239999999999997</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>0.34039999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>0.19020000000000001</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.85960000000000003</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>-0.62880000000000003</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>0.19020000000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>-2.2200000000000001E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>-8.9499999999999996E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>2.07E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>-0.13739999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>0.23630000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>0.48659999999999998</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>-0.49930000000000002</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>0.58530000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>0.92530000000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.89349999999999996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>3.44E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.92530000000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>0.8125</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>0.4466</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>0.3866</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>-0.1762</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>0.49059999999999998</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0.49409999999999998</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>0.45229999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="2">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>-0.19769999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.32219999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>-0.84</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0.4143</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>-6.6E-3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>0.154</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>-0.1119</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>0.41210000000000002</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>-0.85629999999999995</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>0.39439999999999997</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>-1.01E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>-0.85629999999999995</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>-0.1573</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>-0.13389999999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>-0.1171</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>-0.1361</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>0.3775</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>0.45390000000000003</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>0.33310000000000001</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>0.69450000000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>0.14910000000000001</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>-0.96150000000000002</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>0.69450000000000001</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>-1.177</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>0.155</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>-1.3154999999999999</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.11840000000000001</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>-1.0330999999999999</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>-0.74029999999999996</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>-0.64190000000000003</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>-0.54210000000000003</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>-1.4449000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>-0.64190000000000003</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>-0.98599999999999999</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>-2.24E-2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>-0.44590000000000002</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>-0.13830000000000001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>0.93240000000000001</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>1.2888999999999999</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>0.65710000000000002</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.97740000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>-1.6841999999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>-1.3897999999999999</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>-2.1356000000000002</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>-1.6841999999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>-0.12379999999999999</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>-1.0174000000000001</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>0.37</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>-1.6722999999999999</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>-0.25900000000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>-0.20080000000000001</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>-1.5284</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>-1.0412999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>-8.4900000000000003E-2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>0.46160000000000001</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>1.5545</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>-8.4900000000000003E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>-0.61270000000000002</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>1.2343</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>-0.58879999999999999</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>-0.87460000000000004</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>-0.88219999999999998</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>0.6754</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>-0.73409999999999997</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>-0.5958</v>
       </c>
     </row>
@@ -5511,746 +5365,749 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.2392</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>-0.3695</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>-1.0907</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.17549999999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>0.52700000000000002</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>-0.19889999999999999</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-0.95930000000000004</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>-0.2329</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>-0.49980000000000002</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>-0.29909999999999998</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>-0.23880000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.62390000000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.81840000000000002</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1.4916</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>-0.8397</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.88670000000000004</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>1.2386999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>2.2606000000000002</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>0.32929999999999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>1.2067000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>1.7983</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>-0.70660000000000001</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>1.0147999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>-0.53159999999999996</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>-0.22209999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1.0726</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>-0.99180000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.38919999999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.33529999999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>-0.29570000000000002</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>-0.45029999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.28920000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>1.2637</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>-0.80569999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>-0.39379999999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>-0.97989999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.36030000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>-0.56820000000000004</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>-7.2800000000000004E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>-0.186</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.29170000000000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>-0.1706</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>0.29249999999999998</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>0.89139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.2944</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>-1.0325</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>-0.34420000000000001</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.89370000000000005</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>-1.5780000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>-1.4498</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>-0.73839999999999995</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>-0.2666</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>-1.5417000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>-3.0545</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>1.8973</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>-0.88439999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>1.0058</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>2.0181</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.78879999999999995</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>-0.20660000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>0.3846</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0.1787</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0.1767</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0.48980000000000001</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0.83540000000000003</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>0.46439999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>-2.1107</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>1.7077</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1.5432999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>-2.4249999999999998</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0.52759999999999996</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>-0.3306</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>-3.8048000000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>-1.0266</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1.7228000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>1.4728000000000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>-1.3105</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>-1.0254000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>-0.12839999999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>-0.26989999999999997</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>-0.22539999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.68830000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>-7.1499999999999994E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>1.3467</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.60419999999999996</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>1.385</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>0.1729</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.1439</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.90949999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>-0.32290000000000002</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>-0.37169999999999997</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>-0.80130000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.4516</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>-0.37780000000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>-0.32479999999999998</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>-0.47610000000000002</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>0.95050000000000001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>-0.2303</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>-0.56030000000000002</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>1.2226999999999999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>0.57889999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>0.42170000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>-1.5840000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>-2.2523</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1.9428000000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>-1.5436000000000001</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>1.2756000000000001</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>-0.16350000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>-1.1823999999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>1.5390999999999999</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>1.5142</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>1.2329000000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>2.2441</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>0.49480000000000002</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>-0.69450000000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>-0.83460000000000001</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>1.8561000000000001</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>-0.52869999999999995</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>-0.60660000000000003</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>0.99839999999999995</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1.3966000000000001</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>-0.15140000000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>-0.58509999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>1.5366</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1.0469999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>1.0469999999999999</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>0.29699999999999999</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>0.18429999999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0.15820000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>0.2132</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>1.7097</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>0.61980000000000002</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>1.1648000000000001</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>1.1648000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>0.52490000000000003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>0.1762</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>-0.16950000000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>0.33610000000000001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>1.0117</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>-0.54710000000000003</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>-0.14910000000000001</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>0.26079999999999998</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>0.74080000000000001</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>-0.57830000000000004</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>0.45569999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.52290000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>-1.5273000000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>-0.48859999999999998</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>-4.7199999999999999E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>-0.37409999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>-0.86550000000000005</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>-1.1638999999999999</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.26279999999999998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>-0.62990000000000002</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>0.30349999999999999</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>-0.54159999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>-0.182</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>-1.0702</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>-0.84470000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>-1.0067999999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>0.1177</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>-0.35110000000000002</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>2.24E-2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>-0.61650000000000005</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>0.77029999999999998</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>-1.1442000000000001</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>-0.80579999999999996</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.14030000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>-2.4929000000000001</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>-0.45329999999999998</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>-0.22650000000000001</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>-1.1136999999999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>-0.91169999999999995</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>-0.248</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>-1.7543</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>-0.77810000000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>-0.3231</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>0.2596</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>-2.0924</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>-0.23080000000000001</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>-0.39169999999999999</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>-1.0017</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.17660000000000001</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>1.17E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>0.17510000000000001</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>-0.97560000000000002</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>-0.53039999999999998</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>0.44109999999999999</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>-0.70899999999999996</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>-9.9000000000000008E-3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>0.84150000000000003</v>
       </c>
     </row>
@@ -6264,746 +6121,749 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>30</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>30</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>30</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>30</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>60</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>60</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>60</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>-0.27779999999999999</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>-0.80400000000000005</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>-0.38350000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>-0.64180000000000004</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>-0.80030000000000001</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>-3.4693000000000001</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>-1.458</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>0.2762</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>-0.74109999999999998</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>-1.2214</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>-0.53690000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>1.4439</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>2.4161999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1.1740999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.74129999999999996</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1.7565</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>2.5972</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>0.86929999999999996</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2.4257</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>1.5716000000000001</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>3.7502</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>2.3832</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>2.6749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.66930000000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.45929999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>-0.1973</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1.153</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>-0.19359999999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.31009999999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>0.99350000000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>0.32929999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>0.2218</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>-0.2001</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.89090000000000003</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>0.6109</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.49440000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.64149999999999996</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>-0.12570000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.93879999999999997</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>0.66839999999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>0.42559999999999998</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>0.5877</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>0.58540000000000003</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>0.17799999999999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>1.0084</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.9889</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1.6616</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.5464</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1.3427</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>-0.31390000000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>0.246</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>-1.8160000000000001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>-0.1356</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>-0.63580000000000003</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>-0.21690000000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>-1.1214</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.35189999999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1.4939</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>2.1932999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.75609999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>0.39610000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>1.6777</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>1.8124</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0.72519999999999996</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>1.1679999999999999</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>2.1741000000000001</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>2.2208999999999999</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>2.0417000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>-1.8648</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.97850000000000004</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1.7797000000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>-0.38200000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>-3.4506999999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>1.6940999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1.3517999999999999</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>-1.5551999999999999</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>-2.0335000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>1.4532</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>1.3299000000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>-1.3086</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>-1.2664</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>-0.61709999999999998</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>-7.2800000000000004E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.3266</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>-0.08</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.54510000000000003</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>-3.7900000000000003E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>0.40589999999999998</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>-0.10979999999999999</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>0.52370000000000005</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0.57310000000000005</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>0.58960000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>-0.14549999999999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.7077</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>-0.35189999999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.97850000000000004</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>1.0745</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>0.53269999999999995</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0.50319999999999998</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>1.0996999999999999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>1.1006</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>0.46260000000000001</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>-0.2581</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>0.43730000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>-0.56820000000000004</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>-0.61460000000000004</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>-0.28270000000000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>3.0335999999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>-0.16239999999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.69630000000000003</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>-0.27360000000000001</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>0.5746</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>-0.1021</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>0.88419999999999999</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>-0.3115</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>0.55179999999999996</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.69489999999999996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>0.4098</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.55769999999999997</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>0.82</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>1.0041</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>1.3720000000000001</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>1.4371</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>-0.68630000000000002</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1E-4</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0.34949999999999998</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>0.55059999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>0.33160000000000001</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>-3.3906000000000001</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.81830000000000003</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>-7.3499999999999996E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>-0.161</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>0.54049999999999998</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0.54890000000000005</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>0.50180000000000002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>-0.53580000000000005</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>-0.1065</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>1.1893</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>0.19139999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>-0.93069999999999997</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>0.49580000000000002</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>0.4521</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>-0.60529999999999995</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>-0.79879999999999995</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>-0.1749</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>0.30059999999999998</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>-0.78659999999999997</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>0.2419</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>-1.0275000000000001</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>-0.34050000000000002</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>-1.2339</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>-0.66169999999999995</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>1.0471999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>-0.25269999999999998</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>-0.82669999999999999</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>-0.54949999999999999</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>-0.217</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>-0.15310000000000001</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>-0.39069999999999999</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>-0.28360000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>-0.70609999999999995</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>-0.84360000000000002</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>-2.1758000000000002</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>-1.6096999999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>-0.74219999999999997</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>0.48330000000000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>0.61160000000000003</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>-8.3500000000000005E-2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>-0.44540000000000002</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>0.34720000000000001</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>0.74909999999999999</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>0.69569999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>-1.7194</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>-0.49790000000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>-1.2355</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>-1.9155</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>-0.51780000000000004</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>0.62549999999999994</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>-0.89380000000000004</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>-0.50629999999999997</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>-1.0351999999999999</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>0.85160000000000002</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <v>-0.3387</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>-1.0581</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>0.54390000000000005</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>0.12870000000000001</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>0.7379</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.76519999999999999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>-1.2347999999999999</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>-0.2555</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>-5.0620000000000003</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>-0.23730000000000001</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <v>-0.93640000000000001</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>0.69140000000000001</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>-2.6760000000000002</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>-0.8246</v>
       </c>
     </row>
@@ -7016,13 +6876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +6939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7134,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7190,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7246,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7302,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7358,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7414,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -7470,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7526,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -7582,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -7638,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -7694,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -7750,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -7806,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7862,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -7918,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7974,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>

--- a/data/GRNmap_input_workbooks/17-genes_32-edges_NW-dCIN5-fam_Sigmoid_estimation.xlsx
+++ b/data/GRNmap_input_workbooks/17-genes_32-edges_NW-dCIN5-fam_Sigmoid_estimation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" tabRatio="868" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360" tabRatio="868" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="1" r:id="rId1"/>
@@ -102,9 +107,6 @@
     <t>production_function</t>
   </si>
   <si>
-    <t>estiamte_params</t>
-  </si>
-  <si>
     <t>make_graphs</t>
   </si>
   <si>
@@ -163,6 +165,9 @@
   </si>
   <si>
     <t>L_curve</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
   </si>
 </sst>
 </file>
@@ -313,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,15 +575,15 @@
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +591,7 @@
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,7 +599,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +607,7 @@
         <v>0.19259999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -610,7 +615,7 @@
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,7 +623,7 @@
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,7 +631,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,7 +639,7 @@
         <v>0.17119999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +647,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,7 +655,7 @@
         <v>0.4078</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,7 +663,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,7 +671,7 @@
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -674,7 +679,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -682,7 +687,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,7 +695,7 @@
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,7 +703,7 @@
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -706,7 +711,7 @@
         <v>0.72960000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1748,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1762,10 +1767,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1821,12 +1826,12 @@
         <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1834,7 +1839,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1842,7 +1847,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1850,7 +1855,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -1858,7 +1863,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -1866,7 +1871,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>15</v>
@@ -1880,30 +1885,30 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1954,7 +1959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1967,10 +1972,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2129,10 +2134,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2291,7 +2296,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
@@ -3102,7 +3107,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
@@ -3860,7 +3865,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
@@ -4619,7 +4624,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
@@ -5375,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
@@ -6131,7 +6136,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3">
         <v>15</v>
